--- a/medicine/Sexualité et sexologie/Nancy_Friday/Nancy_Friday.xlsx
+++ b/medicine/Sexualité et sexologie/Nancy_Friday/Nancy_Friday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nancy Colbert Friday, née le 27 août 1933 à Pittsburgh et morte le 5 novembre 2017 à New York, est une écrivaine et essayiste américaine.
 Elle a écrit sur la libération et la sexualité des femmes.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Pittsburgh en Pennsylvanie, Nancy Friday grandit à Charleston, en Caroline du Sud, et fut scolarisée au Wellesley College dans le Massachusetts. Elle a travaillé brièvement en tant que journaliste pour l'hebdomadaire San Juan Island. Plus tard, elle travailla en tant que journaliste dans des magazines à New York, en Angleterre, en Italie et en France, avant de se tourner vers l'écriture à temps plein et de publier son premier livre, My Secret Garden (Mon jardin secret en français), en 1973. Ce livre, qui compilait des interviews de femmes discutant de leur sexualité et de leurs fantasmes, devint un best-seller, et contribua à lancer la Révolution sexuelle aux États-Unis[1],[2],[3].
-Elle meurt le 5 novembre 2017 à New-York, à l'âge de 84 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Pittsburgh en Pennsylvanie, Nancy Friday grandit à Charleston, en Caroline du Sud, et fut scolarisée au Wellesley College dans le Massachusetts. Elle a travaillé brièvement en tant que journaliste pour l'hebdomadaire San Juan Island. Plus tard, elle travailla en tant que journaliste dans des magazines à New York, en Angleterre, en Italie et en France, avant de se tourner vers l'écriture à temps plein et de publier son premier livre, My Secret Garden (Mon jardin secret en français), en 1973. Ce livre, qui compilait des interviews de femmes discutant de leur sexualité et de leurs fantasmes, devint un best-seller, et contribua à lancer la Révolution sexuelle aux États-Unis.
+Elle meurt le 5 novembre 2017 à New-York, à l'âge de 84 ans.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) My Secret Garden: Women’s Sexual Fantasies, Simon &amp; Schuster, 1973
 (en) Forbidden Flowers: More Women’s Sexual Fantasies, Simon &amp; Schuster, 1975
